--- a/2023/(A) 5.xlsx
+++ b/2023/(A) 5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="207">
   <si>
     <t>Տող
 ի հհ</t>
@@ -364,33 +364,6 @@
   </si>
   <si>
     <t>Տնտեսական հարաբերություններ (այլ դասերին չպատկանոդ)</t>
-  </si>
-  <si>
-    <t>–3644112,3</t>
-  </si>
-  <si>
-    <t>–5006000,0</t>
-  </si>
-  <si>
-    <t>֊2781175,3</t>
-  </si>
-  <si>
-    <t>–4562972,9</t>
-  </si>
-  <si>
-    <t>–1934075,0</t>
-  </si>
-  <si>
-    <t>–3575785,7</t>
-  </si>
-  <si>
-    <t>֊3644112,3</t>
-  </si>
-  <si>
-    <t>֊1934075,0</t>
-  </si>
-  <si>
-    <t>֊3575785,7</t>
   </si>
   <si>
     <t>ՇՐՋԱԿԱ ՄԻՋԱՎԱՅՐԻ ՊԱՇՏՊԱՆՈՒԹՅՈՒՆ
@@ -6128,32 +6101,32 @@
       <c r="E136" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F136" s="13" t="s">
-        <v>107</v>
+      <c r="F136" s="13">
+        <v>-3644112.3</v>
       </c>
       <c r="G136" s="13">
         <v>1361887.7</v>
       </c>
-      <c r="H136" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I136" s="13" t="s">
-        <v>109</v>
+      <c r="H136" s="13">
+        <v>-5006000.0</v>
+      </c>
+      <c r="I136" s="13">
+        <v>-2781175.3</v>
       </c>
       <c r="J136" s="13">
         <v>1781797.6</v>
       </c>
-      <c r="K136" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L136" s="13" t="s">
-        <v>111</v>
+      <c r="K136" s="13">
+        <v>-4562972.9</v>
+      </c>
+      <c r="L136" s="13">
+        <v>-1934075.0</v>
       </c>
       <c r="M136" s="13">
         <v>1641710.8</v>
       </c>
-      <c r="N136" s="14" t="s">
-        <v>112</v>
+      <c r="N136" s="14">
+        <v>-3575785.7</v>
       </c>
     </row>
     <row r="137">
@@ -6190,32 +6163,32 @@
       <c r="E138" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F138" s="13" t="s">
-        <v>113</v>
+      <c r="F138" s="13">
+        <v>-3644112.3</v>
       </c>
       <c r="G138" s="13">
         <v>1361887.7</v>
       </c>
-      <c r="H138" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I138" s="13" t="s">
-        <v>109</v>
+      <c r="H138" s="13">
+        <v>-5006000.0</v>
+      </c>
+      <c r="I138" s="13">
+        <v>-2781175.3</v>
       </c>
       <c r="J138" s="13">
         <v>1781797.6</v>
       </c>
-      <c r="K138" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L138" s="13" t="s">
-        <v>114</v>
+      <c r="K138" s="13">
+        <v>-4562972.9</v>
+      </c>
+      <c r="L138" s="13">
+        <v>-1934075.0</v>
       </c>
       <c r="M138" s="13">
         <v>1641710.8</v>
       </c>
-      <c r="N138" s="14" t="s">
-        <v>115</v>
+      <c r="N138" s="14">
+        <v>-3575785.7</v>
       </c>
     </row>
     <row r="139">
@@ -6232,7 +6205,7 @@
         <v>0.0</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F139" s="13">
         <v>1.41174791E7</v>
@@ -6294,7 +6267,7 @@
         <v>0.0</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F141" s="13">
         <v>7517888.1</v>
@@ -6356,7 +6329,7 @@
         <v>1.0</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F143" s="13">
         <v>7517888.1</v>
@@ -6400,7 +6373,7 @@
         <v>0.0</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F144" s="13">
         <v>509485.0</v>
@@ -6462,7 +6435,7 @@
         <v>1.0</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F146" s="13">
         <v>509485.0</v>
@@ -6506,7 +6479,7 @@
         <v>0.0</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F147" s="13">
         <v>38683.0</v>
@@ -6568,7 +6541,7 @@
         <v>1.0</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F149" s="13">
         <v>38683.0</v>
@@ -6612,7 +6585,7 @@
         <v>0.0</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F150" s="13">
         <v>0.0</v>
@@ -6674,7 +6647,7 @@
         <v>1.0</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F152" s="13">
         <v>0.0</v>
@@ -6718,7 +6691,7 @@
         <v>0.0</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F153" s="13">
         <v>0.0</v>
@@ -6780,7 +6753,7 @@
         <v>1.0</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F155" s="13">
         <v>0.0</v>
@@ -6824,7 +6797,7 @@
         <v>0.0</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F156" s="13">
         <v>6051423.0</v>
@@ -6886,7 +6859,7 @@
         <v>1.0</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F158" s="13">
         <v>6051423.0</v>
@@ -6930,7 +6903,7 @@
         <v>0.0</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F159" s="13">
         <v>8385532.6</v>
@@ -6992,7 +6965,7 @@
         <v>0.0</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F161" s="13">
         <v>28564.0</v>
@@ -7028,7 +7001,7 @@
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
       <c r="E162" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="17"/>
@@ -7054,7 +7027,7 @@
         <v>1.0</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F163" s="13">
         <v>28564.0</v>
@@ -7098,7 +7071,7 @@
         <v>0.0</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F164" s="13">
         <v>0.0</v>
@@ -7160,7 +7133,7 @@
         <v>1.0</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F166" s="13">
         <v>0.0</v>
@@ -7204,7 +7177,7 @@
         <v>0.0</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F167" s="13">
         <v>0.0</v>
@@ -7266,7 +7239,7 @@
         <v>1.0</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F169" s="13">
         <v>0.0</v>
@@ -7310,7 +7283,7 @@
         <v>0.0</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F170" s="13">
         <v>4179100.8</v>
@@ -7372,7 +7345,7 @@
         <v>1.0</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F172" s="13">
         <v>4179100.8</v>
@@ -7416,7 +7389,7 @@
         <v>0.0</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F173" s="13">
         <v>12000.0</v>
@@ -7478,7 +7451,7 @@
         <v>1.0</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F175" s="13">
         <v>12000.0</v>
@@ -7522,7 +7495,7 @@
         <v>0.0</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F176" s="13">
         <v>4165867.8</v>
@@ -7584,7 +7557,7 @@
         <v>1.0</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F178" s="13">
         <v>4165867.8</v>
@@ -7628,7 +7601,7 @@
         <v>0.0</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F179" s="13">
         <v>757000.0</v>
@@ -7690,7 +7663,7 @@
         <v>0.0</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F181" s="13">
         <v>237000.0</v>
@@ -7752,7 +7725,7 @@
         <v>1.0</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F183" s="13">
         <v>237000.0</v>
@@ -7796,7 +7769,7 @@
         <v>2.0</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F184" s="13">
         <v>0.0</v>
@@ -7840,7 +7813,7 @@
         <v>3.0</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F185" s="13">
         <v>0.0</v>
@@ -7884,7 +7857,7 @@
         <v>0.0</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F186" s="13">
         <v>0.0</v>
@@ -7946,7 +7919,7 @@
         <v>1.0</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F188" s="13">
         <v>0.0</v>
@@ -7990,7 +7963,7 @@
         <v>2.0</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F189" s="13">
         <v>0.0</v>
@@ -8034,7 +8007,7 @@
         <v>3.0</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F190" s="13">
         <v>0.0</v>
@@ -8078,7 +8051,7 @@
         <v>4.0</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F191" s="13">
         <v>0.0</v>
@@ -8122,7 +8095,7 @@
         <v>0.0</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F192" s="13">
         <v>0.0</v>
@@ -8184,7 +8157,7 @@
         <v>1.0</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F194" s="13">
         <v>0.0</v>
@@ -8228,7 +8201,7 @@
         <v>2.0</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F195" s="13">
         <v>0.0</v>
@@ -8272,7 +8245,7 @@
         <v>3.0</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F196" s="13">
         <v>0.0</v>
@@ -8316,7 +8289,7 @@
         <v>4.0</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F197" s="13">
         <v>0.0</v>
@@ -8360,7 +8333,7 @@
         <v>0.0</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F198" s="13">
         <v>0.0</v>
@@ -8422,7 +8395,7 @@
         <v>1.0</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F200" s="13">
         <v>0.0</v>
@@ -8466,7 +8439,7 @@
         <v>0.0</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F201" s="13">
         <v>0.0</v>
@@ -8528,7 +8501,7 @@
         <v>1.0</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F203" s="13">
         <v>0.0</v>
@@ -8572,7 +8545,7 @@
         <v>0.0</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F204" s="13">
         <v>520000.0</v>
@@ -8634,7 +8607,7 @@
         <v>1.0</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F206" s="13">
         <v>520000.0</v>
@@ -8678,7 +8651,7 @@
         <v>2.0</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F207" s="13">
         <v>0.0</v>
@@ -8722,7 +8695,7 @@
         <v>0.0</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F208" s="13">
         <v>4364614.2</v>
@@ -8784,7 +8757,7 @@
         <v>0.0</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F210" s="13">
         <v>926209.5</v>
@@ -8846,7 +8819,7 @@
         <v>1.0</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F212" s="13">
         <v>926209.5</v>
@@ -8890,7 +8863,7 @@
         <v>0.0</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F213" s="13">
         <v>3407987.7</v>
@@ -8952,7 +8925,7 @@
         <v>1.0</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F215" s="13">
         <v>624734.2</v>
@@ -8996,7 +8969,7 @@
         <v>2.0</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F216" s="13">
         <v>346602.6</v>
@@ -9034,13 +9007,13 @@
         <v>8.0</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D217" s="15">
         <v>3.0</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F217" s="13">
         <v>480320.1</v>
@@ -9078,13 +9051,13 @@
         <v>8.0</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D218" s="15">
         <v>4.0</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F218" s="13">
         <v>1145910.7</v>
@@ -9122,13 +9095,13 @@
         <v>8.0</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D219" s="15">
         <v>5.0</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F219" s="13">
         <v>804420.1</v>
@@ -9166,13 +9139,13 @@
         <v>8.0</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D220" s="15">
         <v>6.0</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F220" s="13">
         <v>0.0</v>
@@ -9210,13 +9183,13 @@
         <v>8.0</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D221" s="15">
         <v>7.0</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F221" s="13">
         <v>6000.0</v>
@@ -9260,7 +9233,7 @@
         <v>0.0</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F222" s="13">
         <v>0.0</v>
@@ -9322,7 +9295,7 @@
         <v>1.0</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F224" s="13">
         <v>0.0</v>
@@ -9366,7 +9339,7 @@
         <v>2.0</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F225" s="13">
         <v>0.0</v>
@@ -9410,7 +9383,7 @@
         <v>3.0</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F226" s="13">
         <v>0.0</v>
@@ -9454,7 +9427,7 @@
         <v>0.0</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F227" s="13">
         <v>30417.0</v>
@@ -9516,7 +9489,7 @@
         <v>1.0</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F229" s="13">
         <v>10000.0</v>
@@ -9560,7 +9533,7 @@
         <v>2.0</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F230" s="13">
         <v>0.0</v>
@@ -9604,7 +9577,7 @@
         <v>3.0</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F231" s="13">
         <v>20417.0</v>
@@ -9648,7 +9621,7 @@
         <v>0.0</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F232" s="13">
         <v>0.0</v>
@@ -9710,7 +9683,7 @@
         <v>1.0</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F234" s="13">
         <v>0.0</v>
@@ -9754,7 +9727,7 @@
         <v>0.0</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F235" s="13">
         <v>0.0</v>
@@ -9816,7 +9789,7 @@
         <v>1.0</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F237" s="13">
         <v>0.0</v>
@@ -9860,7 +9833,7 @@
         <v>0.0</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F238" s="13">
         <v>3.48011538E7</v>
@@ -9922,7 +9895,7 @@
         <v>0.0</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F240" s="13">
         <v>1.83101345E7</v>
@@ -9984,7 +9957,7 @@
         <v>1.0</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F242" s="13">
         <v>1.06944474E7</v>
@@ -10028,7 +10001,7 @@
         <v>2.0</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F243" s="13">
         <v>7615687.1</v>
@@ -10072,7 +10045,7 @@
         <v>0.0</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F244" s="13">
         <v>8733802.8</v>
@@ -10134,7 +10107,7 @@
         <v>1.0</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F246" s="13">
         <v>8514533.2</v>
@@ -10178,7 +10151,7 @@
         <v>2.0</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F247" s="13">
         <v>219269.6</v>
@@ -10222,7 +10195,7 @@
         <v>0.0</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F248" s="13">
         <v>0.0</v>
@@ -10284,7 +10257,7 @@
         <v>1.0</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F250" s="13">
         <v>0.0</v>
@@ -10328,7 +10301,7 @@
         <v>2.0</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F251" s="13">
         <v>0.0</v>
@@ -10372,7 +10345,7 @@
         <v>0.0</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F252" s="13">
         <v>0.0</v>
@@ -10408,7 +10381,7 @@
       <c r="C253" s="12"/>
       <c r="D253" s="12"/>
       <c r="E253" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F253" s="17"/>
       <c r="G253" s="17"/>
@@ -10434,7 +10407,7 @@
         <v>1.0</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F254" s="13">
         <v>0.0</v>
@@ -10478,7 +10451,7 @@
         <v>2.0</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F255" s="13">
         <v>0.0</v>
@@ -10522,7 +10495,7 @@
         <v>0.0</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F256" s="13">
         <v>4655510.3</v>
@@ -10584,7 +10557,7 @@
         <v>1.0</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F258" s="13">
         <v>4655510.3</v>
@@ -10628,7 +10601,7 @@
         <v>2.0</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F259" s="13">
         <v>0.0</v>
@@ -10672,7 +10645,7 @@
         <v>0.0</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F260" s="13">
         <v>3101706.2</v>
@@ -10734,7 +10707,7 @@
         <v>1.0</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F262" s="13">
         <v>3101706.2</v>
@@ -10778,7 +10751,7 @@
         <v>0.0</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F263" s="13">
         <v>0.0</v>
@@ -10840,7 +10813,7 @@
         <v>1.0</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F265" s="13">
         <v>0.0</v>
@@ -10884,7 +10857,7 @@
         <v>0.0</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F266" s="13">
         <v>0.0</v>
@@ -10946,7 +10919,7 @@
         <v>1.0</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F268" s="13">
         <v>0.0</v>
@@ -10990,7 +10963,7 @@
         <v>0.0</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F269" s="13">
         <v>1880241.4</v>
@@ -11052,7 +11025,7 @@
         <v>0.0</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F271" s="13">
         <v>0.0</v>
@@ -11114,7 +11087,7 @@
         <v>1.0</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F273" s="13">
         <v>0.0</v>
@@ -11158,7 +11131,7 @@
         <v>2.0</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F274" s="13">
         <v>0.0</v>
@@ -11202,7 +11175,7 @@
         <v>0.0</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F275" s="13">
         <v>0.0</v>
@@ -11264,7 +11237,7 @@
         <v>1.0</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F277" s="13">
         <v>0.0</v>
@@ -11308,7 +11281,7 @@
         <v>0.0</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F278" s="13">
         <v>14485.9</v>
@@ -11370,7 +11343,7 @@
         <v>1.0</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F280" s="13">
         <v>14485.9</v>
@@ -11414,7 +11387,7 @@
         <v>0.0</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F281" s="13">
         <v>6525.0</v>
@@ -11476,7 +11449,7 @@
         <v>1.0</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F283" s="13">
         <v>6525.0</v>
@@ -11520,7 +11493,7 @@
         <v>0.0</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F284" s="13">
         <v>0.0</v>
@@ -11582,7 +11555,7 @@
         <v>1.0</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F286" s="13">
         <v>0.0</v>
@@ -11626,7 +11599,7 @@
         <v>0.0</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F287" s="13">
         <v>0.0</v>
@@ -11688,7 +11661,7 @@
         <v>1.0</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F289" s="13">
         <v>0.0</v>
@@ -11732,7 +11705,7 @@
         <v>0.0</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F290" s="13">
         <v>543778.5</v>
@@ -11794,7 +11767,7 @@
         <v>1.0</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F292" s="13">
         <v>543778.5</v>
@@ -11838,7 +11811,7 @@
         <v>0.0</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F293" s="13">
         <v>0.0</v>
@@ -11900,7 +11873,7 @@
         <v>1.0</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F295" s="13">
         <v>0.0</v>
@@ -11962,7 +11935,7 @@
         <v>0.0</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F297" s="13">
         <v>1315452.0</v>
@@ -12024,7 +11997,7 @@
         <v>1.0</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F299" s="13">
         <v>0.0</v>
@@ -12068,7 +12041,7 @@
         <v>2.0</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F300" s="13">
         <v>1315452.0</v>
@@ -12112,7 +12085,7 @@
         <v>0.0</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F301" s="13">
         <v>5594028.6</v>
@@ -12174,7 +12147,7 @@
         <v>0.0</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F303" s="13">
         <v>5594028.6</v>
@@ -12236,7 +12209,7 @@
         <v>2.0</v>
       </c>
       <c r="E305" s="22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F305" s="23">
         <v>5594028.6</v>
